--- a/CTFLife_PD_Broker_Admin_Bulk_Upload_Template (10).xlsx
+++ b/CTFLife_PD_Broker_Admin_Bulk_Upload_Template (10).xlsx
@@ -140,7 +140,7 @@
     <t>Savings</t>
   </si>
   <si>
-    <t>Team1</t>
+    <t>Jason</t>
   </si>
   <si>
     <t>no</t>
@@ -179,7 +179,7 @@
     <t>VHIS</t>
   </si>
   <si>
-    <t>Team2</t>
+    <t>TST</t>
   </si>
   <si>
     <t>lin</t>
@@ -212,7 +212,7 @@
     <t>medical</t>
   </si>
   <si>
-    <t>Team3</t>
+    <t>max</t>
   </si>
   <si>
     <t>Doe</t>
@@ -300,7 +300,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -338,13 +338,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -838,151 +831,151 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,8 +1004,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1562,7 +1555,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="T23" sqref="T23"/>
+      <selection pane="bottomLeft" activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1970,7 +1963,7 @@
         <v>70</v>
       </c>
       <c r="U11" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="V11" s="16" t="s">
         <v>69</v>
@@ -2092,7 +2085,7 @@
         <v>36</v>
       </c>
       <c r="U13" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="V13" s="18" t="s">
         <v>79</v>
@@ -2103,15 +2096,15 @@
     <mergeCell ref="A1:V1"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R11 R12:R13">
-      <formula1>6</formula1>
-      <formula2>6</formula2>
-    </dataValidation>
     <dataValidation type="textLength" operator="notEqual" showInputMessage="1" showErrorMessage="1" sqref="B11:B13">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C13">
       <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R11:R13">
+      <formula1>6</formula1>
+      <formula2>6</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/CTFLife_PD_Broker_Admin_Bulk_Upload_Template (10).xlsx
+++ b/CTFLife_PD_Broker_Admin_Bulk_Upload_Template (10).xlsx
@@ -212,7 +212,7 @@
     <t>medical</t>
   </si>
   <si>
-    <t>max</t>
+    <t>MAX</t>
   </si>
   <si>
     <t>Doe</t>
@@ -1555,7 +1555,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="T22" sqref="T22"/>
+      <selection pane="bottomLeft" activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/CTFLife_PD_Broker_Admin_Bulk_Upload_Template (10).xlsx
+++ b/CTFLife_PD_Broker_Admin_Bulk_Upload_Template (10).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
   <si>
     <t>CTFLife_PD_Broker_Admin_Bulk_Upload_Template</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>medical</t>
-  </si>
-  <si>
-    <t>MAX</t>
   </si>
   <si>
     <t>Doe</t>
@@ -1555,7 +1552,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomLeft" activeCell="U12" sqref="U12:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1898,7 +1895,7 @@
         <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="V5" t="s">
         <v>35</v>
@@ -1906,19 +1903,19 @@
     </row>
     <row r="11" spans="2:22">
       <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>30</v>
@@ -1933,7 +1930,7 @@
         <v>46</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L11" s="3">
         <v>852</v>
@@ -1954,36 +1951,36 @@
         <v>12345678</v>
       </c>
       <c r="R11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="U11" t="s">
         <v>37</v>
       </c>
       <c r="V11" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:22">
       <c r="B12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="E12" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="G12" s="7">
         <v>28</v>
@@ -1998,7 +1995,7 @@
         <v>32</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L12" s="6">
         <v>86</v>
@@ -2015,10 +2012,10 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="T12" s="6" t="s">
         <v>36</v>
@@ -2027,27 +2024,27 @@
         <v>50</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="2:22">
       <c r="B13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G13" s="20" t="s">
         <v>83</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>84</v>
       </c>
       <c r="H13" s="10">
         <v>10</v>
@@ -2059,7 +2056,7 @@
         <v>57</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L13" s="9">
         <v>852</v>
@@ -2076,19 +2073,19 @@
       <c r="P13" s="15"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T13" s="9" t="s">
         <v>36</v>
       </c>
       <c r="U13" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="V13" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
